--- a/data/income_statement/3digits/total/439_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/439_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>439-Other specialised construction activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>439-Other specialised construction activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1697337.69813</v>
@@ -959,34 +865,39 @@
         <v>2686171.73876</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3658456.12792</v>
+        <v>3662239.962809999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4851803.10427</v>
+        <v>4863219.67457</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5829427.15646</v>
+        <v>5955935.25667</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6627284.56821</v>
+        <v>6824902.02594</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7931892.86163</v>
+        <v>7952415.71039</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>9959126.157869998</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12369253.67937</v>
+        <v>12401849.45235</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12001175.16463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12129594.57937</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11859201.309</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1474036.09986</v>
@@ -998,34 +909,39 @@
         <v>2510744.13834</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3387296.23875</v>
+        <v>3390988.80461</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4460292.628760001</v>
+        <v>4471271.47762</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5449207.596100001</v>
+        <v>5575267.526029998</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6259233.741539999</v>
+        <v>6453509.535049999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7451409.30408</v>
+        <v>7471312.203360001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>9172410.40251</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11230395.10457</v>
+        <v>11261636.3951</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10245541.65504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10368462.19976</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10484398.614</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>140082.36918</v>
@@ -1040,31 +956,36 @@
         <v>226396.26416</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>304764.39695</v>
+        <v>304867.18453</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>289648.6224699999</v>
+        <v>289726.37472</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>271991.30423</v>
+        <v>274122.85479</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>354075.78775</v>
+        <v>354585.1076699999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>647563.0153</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>948503.4516199998</v>
+        <v>949459.6505899999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1575110.10102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1577487.2408</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1178145.121</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>83219.22908999999</v>
@@ -1073,37 +994,42 @@
         <v>44917.00582</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>36547.76481999999</v>
+        <v>36547.76482</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>44763.62501</v>
+        <v>44854.89404</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>86746.07856000001</v>
+        <v>87081.01241999998</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>90570.93789</v>
+        <v>90941.35592</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>96059.52244</v>
+        <v>97269.63609999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>126407.7698</v>
+        <v>126518.39936</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>139152.74006</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>190355.12318</v>
+        <v>190753.40666</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>180523.40857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>183645.13881</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>196657.574</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>8544.97236</v>
@@ -1115,34 +1041,39 @@
         <v>22606.28298</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>15966.66482</v>
+        <v>16004.83529</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>23926.03716</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>25594.20041</v>
+        <v>25612.23677</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>40646.56651</v>
+        <v>41024.21161</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>71296.13137999999</v>
+        <v>73655.83921000001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>108647.00115</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>128471.17771</v>
+        <v>128618.05512</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>118065.31692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>117040.87601</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>192741.468</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5041.68416</v>
@@ -1154,34 +1085,39 @@
         <v>17351.75682</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9344.713299999999</v>
+        <v>9382.0978</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>16427.25058</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>17707.03513</v>
+        <v>17725.07149</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>30022.19678</v>
+        <v>30375.14655</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>54887.66465</v>
+        <v>57247.37248000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>96112.6759</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>115086.28813</v>
+        <v>115091.92673</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>102842.99059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>101838.54968</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>168324.002</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3272.49122</v>
@@ -1190,19 +1126,19 @@
         <v>3987.56814</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4969.544059999999</v>
+        <v>4969.54406</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>6070.984649999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6488.925790000001</v>
+        <v>6488.92579</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>7030.72837</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8016.52421</v>
+        <v>8019.454700000001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>13350.47325</v>
@@ -1211,16 +1147,21 @@
         <v>10230.32787</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8557.322539999999</v>
+        <v>8557.322540000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9009.27024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8989.27024</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>19143.874</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>230.79698</v>
@@ -1232,16 +1173,16 @@
         <v>284.9821</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>550.96687</v>
+        <v>551.75284</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>1009.86079</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>856.4369099999999</v>
+        <v>856.43691</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2607.845519999999</v>
+        <v>2629.61036</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>3057.99348</v>
@@ -1250,16 +1191,21 @@
         <v>2303.99738</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4827.56704</v>
+        <v>4968.80585</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>6213.05609</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>5273.592</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1688792.72577</v>
@@ -1271,34 +1217,39 @@
         <v>2663565.45578</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3642489.4631</v>
+        <v>3646235.12752</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4827877.06711</v>
+        <v>4839293.63741</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5803832.95605</v>
+        <v>5930323.0199</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6586638.001700001</v>
+        <v>6783877.814329999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7860596.73025</v>
+        <v>7878759.871180001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>9850479.156720001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12240782.50166</v>
+        <v>12273231.39723</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11883109.84771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12012553.70336</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11666459.841</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1413983.7786</v>
@@ -1310,40 +1261,45 @@
         <v>2299873.62997</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3149989.28762</v>
+        <v>3153264.91203</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4139903.99848</v>
+        <v>4149128.63619</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5061804.63424</v>
+        <v>5175631.52709</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5771986.35315</v>
+        <v>5956661.93988</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6776174.07057</v>
+        <v>6792189.813629999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8639405.865350001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10752017.59837</v>
+        <v>10780425.10858</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10345920.72445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10457953.37551</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10124928.845</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>355940.79962</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>351088.14285</v>
+        <v>351088.1428499999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>451817.8872700001</v>
@@ -1352,13 +1308,13 @@
         <v>588511.0363799999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>706838.65512</v>
+        <v>708851.38911</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>934855.25573</v>
+        <v>960813.80239</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>969278.2113099999</v>
+        <v>977406.72297</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1426558.96138</v>
@@ -1367,16 +1323,21 @@
         <v>1897668.48923</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2219024.30051</v>
+        <v>2223538.25033</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2191682.37219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2235692.82884</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2366570.504</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>354965.32237</v>
@@ -1385,40 +1346,45 @@
         <v>476308.61037</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>572836.7056600001</v>
+        <v>572836.70566</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>772368.5820599999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1029802.17181</v>
+        <v>1030406.66935</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1209241.97833</v>
+        <v>1215234.48514</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1542274.72403</v>
+        <v>1563699.61773</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1560648.11269</v>
+        <v>1572142.71739</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1957901.17491</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2745063.47032</v>
+        <v>2760811.31522</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2817919.40646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2858247.45036</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3060773.718</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>695827.5366500001</v>
+        <v>695827.53665</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>918859.18646</v>
@@ -1427,34 +1393,39 @@
         <v>1263443.58383</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1777960.10965</v>
+        <v>1781235.73406</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2383266.31313</v>
+        <v>2389873.71931</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2886588.57923</v>
+        <v>2968463.46522</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3234598.802519999</v>
+        <v>3389385.48389</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3757658.03341</v>
+        <v>3761666.673270001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4687919.334370001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5653680.628389999</v>
+        <v>5661726.00489</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5201458.51087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5229654.100699999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4614128.647</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7250.11996</v>
@@ -1472,28 +1443,33 @@
         <v>19996.85842</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>31118.82095</v>
+        <v>31119.77434</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>25834.61529</v>
+        <v>26170.11529</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>31308.96309</v>
+        <v>31821.46159</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>95916.86684</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>134249.19915</v>
+        <v>134349.53814</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>134860.43493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>134358.99561</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>83455.976</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>274808.94717</v>
@@ -1505,34 +1481,39 @@
         <v>363691.82581</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>492500.17548</v>
+        <v>492970.21549</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>687973.06863</v>
+        <v>690165.00122</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>742028.3218100001</v>
+        <v>754691.4928100001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>814651.6485499999</v>
+        <v>827215.87445</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1084422.65968</v>
+        <v>1086570.05755</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1211073.29137</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1488764.90329</v>
+        <v>1492806.28865</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1537189.12326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1554600.32785</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1541530.996</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>167284.45538</v>
@@ -1544,34 +1525,39 @@
         <v>245725.18672</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>328327.48917</v>
+        <v>328550.1297</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>423989.50444</v>
+        <v>425915.19563</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>480659.40425</v>
+        <v>493975.75342</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>576613.7096599999</v>
+        <v>591298.3441900001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>658906.3245899999</v>
+        <v>663266.86427</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>801334.4401600001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1003774.59942</v>
+        <v>1007114.38908</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1114642.36911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1131943.94241</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1092330.214</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1866.41914</v>
@@ -1592,10 +1578,10 @@
         <v>534.65009</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2801.48845</v>
+        <v>2844.54455</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1197.05464</v>
+        <v>1197.64419</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1099.55798</v>
@@ -1606,50 +1592,60 @@
       <c r="M21" s="48" t="n">
         <v>33287.88815</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>37375.078</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>24253.66737</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>26521.92748999999</v>
+        <v>26521.92749</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>37571.84949</v>
+        <v>37571.84948999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>47573.05737</v>
+        <v>47574.33762999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>71160.87011</v>
+        <v>71578.48882</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>81326.41142</v>
+        <v>81392.17022</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>94319.56224</v>
+        <v>96654.81962000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>115972.68216</v>
+        <v>117992.34522</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>136615.80684</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>182684.65666</v>
+        <v>182707.53203</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>214680.41359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>219514.90695</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>178695.832</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>141164.36887</v>
@@ -1661,34 +1657,39 @@
         <v>207720.6112</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>280370.80159</v>
+        <v>280592.16186</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>351906.42721</v>
+        <v>353414.49969</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>398798.34274</v>
+        <v>412048.93311</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>479492.65897</v>
+        <v>491798.98002</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>541736.58779</v>
+        <v>544076.87486</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>663619.07534</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>816486.33462</v>
+        <v>819803.2489100001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>866674.0673700001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>879141.1473099999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>876259.304</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>107524.49179</v>
@@ -1700,34 +1701,39 @@
         <v>117966.63909</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>164172.68631</v>
+        <v>164420.08579</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>263983.56419</v>
+        <v>264249.8055899999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>261368.91756</v>
+        <v>260715.73939</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>238037.93889</v>
+        <v>235917.53026</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>425516.33509</v>
+        <v>423303.1932799999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>409738.8512100001</v>
+        <v>409738.85121</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>484990.30387</v>
+        <v>485691.89957</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>422546.75415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>422656.38544</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>449200.782</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>56241.13433</v>
@@ -1736,37 +1742,42 @@
         <v>56680.09918</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>88454.60432</v>
+        <v>88454.60432000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>75552.62245000001</v>
+        <v>75556.26300000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>112971.23729</v>
+        <v>113849.59746</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>202419.95034</v>
+        <v>203737.49187</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>175764.47081</v>
+        <v>177928.99466</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>241608.07247</v>
+        <v>244058.76204</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>216326.98089</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>719702.1031400001</v>
+        <v>720342.95352</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>396555.05464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>397906.66613</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>591793.863</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>10309.39321</v>
@@ -1778,7 +1789,7 @@
         <v>4472.537240000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7369.602860000001</v>
+        <v>7369.60286</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>5644.21285</v>
@@ -1796,16 +1807,21 @@
         <v>10213.64369</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>8859.84906</v>
+        <v>8859.849059999999</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>23572.983</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>7519.67</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>76.66873</v>
@@ -1823,7 +1839,7 @@
         <v>11137.12797</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>76544.34722</v>
+        <v>76910.54520000001</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>3499.43246</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>2738.30097</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>6568.14</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7710.53527</v>
+        <v>7710.535269999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7543.82804</v>
+        <v>7543.828039999999</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>8492.245080000001</v>
@@ -1862,28 +1883,33 @@
         <v>13716.22396</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>13481.69152</v>
+        <v>13612.69605</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17164.47455</v>
+        <v>18100.93784</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>24417.96524</v>
+        <v>24422.48173</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>32263.11461</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45337.45957</v>
+        <v>45337.45956999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>37430.35151000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>37509.53961</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>25867.228</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>215.14922</v>
@@ -1898,7 +1924,7 @@
         <v>369.33076</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>403.68829</v>
+        <v>403.6882900000001</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>207.91967</v>
@@ -1910,19 +1936,24 @@
         <v>433.72121</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>381.2970799999999</v>
+        <v>381.29708</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>442.69527</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>978.29225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>978.52555</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2699.983</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>360.39708</v>
@@ -1943,7 +1974,7 @@
         <v>2097.1666</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1060.96633</v>
+        <v>1061.61572</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>1911.00154</v>
@@ -1955,13 +1986,18 @@
         <v>5793.70383</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2385.99742</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2995.53716</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1390.527</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>981.95967</v>
@@ -1979,10 +2015,10 @@
         <v>565.25585</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1088.48105</v>
+        <v>1089.4804</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1041.02265</v>
+        <v>1060.47153</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>2431.49066</v>
@@ -1991,16 +2027,21 @@
         <v>2232.78148</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2989.09593</v>
+        <v>2989.095929999999</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>4357.05235</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>15212.983</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>27681.57293</v>
@@ -2012,34 +2053,39 @@
         <v>47719.28739</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>39755.43783</v>
+        <v>39759.07838000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>66407.52399999999</v>
+        <v>67234.30223999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>70099.19254999999</v>
+        <v>70910.18347</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>117551.42337</v>
+        <v>118602.04621</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>121836.42455</v>
+        <v>124282.59763</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>139332.5184</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>585914.79474</v>
+        <v>586532.97228</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>270319.26052</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>271009.7602899999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>485109.839</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.00404</v>
@@ -2072,13 +2118,18 @@
         <v>44.55956</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>11.89281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>11.89266</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>4.919</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>12.37769</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>325.06479</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>848.686</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>8891.076489999999</v>
@@ -2132,13 +2188,13 @@
         <v>11949.1372</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>13547.4435</v>
+        <v>13599.02543</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>28290.82556</v>
+        <v>28299.17431</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23179.01354</v>
+        <v>23336.35299</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>62458.94329000001</v>
@@ -2147,58 +2203,68 @@
         <v>29282.83967</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>66094.1001</v>
+        <v>66116.77294</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>54435.85902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>54408.00975</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>46571.888</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>42898.92505</v>
+        <v>42898.92505000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>39451.11631</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>92516.72752000001</v>
+        <v>92516.72752</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>53898.04714</v>
+        <v>53936.95803</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>121123.52883</v>
+        <v>123724.17208</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>87808.78781000001</v>
+        <v>88103.32875</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>170445.29187</v>
+        <v>171568.84262</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>172354.98612</v>
+        <v>173376.91235</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>222163.95234</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>647866.77041</v>
+        <v>648588.98454</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>340403.4215599999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>341234.86259</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>536132.36</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>662.04634</v>
+        <v>662.0463400000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>658.46875</v>
@@ -2207,16 +2273,16 @@
         <v>923.7984299999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>789.8875700000001</v>
+        <v>789.88757</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>847.5231499999999</v>
+        <v>847.5231500000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>988.65594</v>
+        <v>988.6559400000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1996.95029</v>
+        <v>2000.00302</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>2242.11979</v>
@@ -2225,16 +2291,21 @@
         <v>1328.58907</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1557.06968</v>
+        <v>1559.6131</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1046.75355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1047.03655</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>767.176</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4524.80395</v>
@@ -2249,10 +2320,10 @@
         <v>11822.95881</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9452.45103</v>
+        <v>9452.451030000002</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7007.18725</v>
+        <v>7007.187250000001</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>11277.07953</v>
@@ -2264,16 +2335,21 @@
         <v>32052.467</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>20158.61257</v>
+        <v>20308.40761</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>12538.8809</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>13192.877</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>153.85967</v>
@@ -2294,7 +2370,7 @@
         <v>420.16275</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>97.57075999999999</v>
+        <v>97.57075999999998</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>279.15736</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>121.4786</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2498.655</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>32554.78252</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>31654.76562999999</v>
+        <v>31654.76563</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>73141.80987000001</v>
@@ -2327,31 +2408,36 @@
         <v>33392.92175</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>103924.37365</v>
+        <v>106520.69385</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>69026.98019</v>
+        <v>69321.52103</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>142461.6232</v>
+        <v>143555.21674</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>142106.11428</v>
+        <v>143128.04051</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>171565.70493</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>590855.04142</v>
+        <v>591424.91709</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>305426.44889</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>306008.52207</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>493135.276</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>69.69855</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>5.17147</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>62.65863</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4928.562550000001</v>
+        <v>4928.56255</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>3396.85995</v>
@@ -2441,16 +2537,16 @@
         <v>3541.38319</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7772.956530000001</v>
+        <v>7811.86742</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6687.771320000001</v>
+        <v>6692.094369999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>10304.48336</v>
+        <v>10304.48346</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13917.94671</v>
+        <v>13944.85119</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>14876.37133</v>
@@ -2459,16 +2555,21 @@
         <v>16685.94402</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>33801.58137000001</v>
+        <v>33801.58137</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>21207.20099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>21456.28584</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>26538.376</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>34620.48454999999</v>
@@ -2480,34 +2581,39 @@
         <v>41618.90837</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>57387.29641</v>
+        <v>57587.03703</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>70798.95892</v>
+        <v>71173.14053999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>92802.47526000001</v>
+        <v>93372.74778000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>126671.65383</v>
+        <v>128652.6533</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>139476.85586</v>
+        <v>139678.38862</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>198741.8074</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>409403.90642</v>
+        <v>409491.54985</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>273654.34401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>274740.26201</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>245366.121</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>26318.4553</v>
@@ -2519,34 +2625,39 @@
         <v>34961.95848</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>52981.16123000001</v>
+        <v>53180.90184999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>62850.70114</v>
+        <v>63114.06593</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>82618.63918000001</v>
+        <v>83181.21025999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>114345.29884</v>
+        <v>116325.72571</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>126381.32124</v>
+        <v>126582.854</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>177773.10575</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>348763.74952</v>
+        <v>348851.39295</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>248465.98539</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>249551.90339</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>225101.346</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8302.02925</v>
@@ -2558,16 +2669,16 @@
         <v>6656.949890000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4406.135179999999</v>
+        <v>4406.13518</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7948.257779999999</v>
+        <v>8059.074610000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>10183.83608</v>
+        <v>10191.53752</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>12326.35499</v>
+        <v>12326.92759</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>13095.53462</v>
@@ -2576,16 +2687,21 @@
         <v>20968.70165</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>60640.15689999999</v>
+        <v>60640.15690000001</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>25188.35862</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>20264.775</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>86246.21652</v>
@@ -2597,34 +2713,39 @@
         <v>72285.60751999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>128439.96521</v>
+        <v>128452.35373</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>185032.31373</v>
+        <v>183202.09043</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>283177.60483</v>
+        <v>282977.15473</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>116685.464</v>
+        <v>113625.029</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>355292.5655800001</v>
+        <v>354306.65435</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>205160.07236</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>147421.73018</v>
+        <v>147954.3187</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>205044.04322</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>204587.92697</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>259496.164</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>20887.80717</v>
@@ -2639,37 +2760,42 @@
         <v>88684.22026999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>50053.277</v>
+        <v>50264.39556</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>62726.56223999999</v>
+        <v>62840.61133000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>81533.73542999999</v>
+        <v>83720.20645</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>95668.80637999999</v>
+        <v>95737.35378999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>122096.09912</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>149046.54103</v>
+        <v>149427.4324</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>144616.40945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>145874.21024</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>172363.824</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3966.841440000001</v>
+        <v>3966.84144</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>4331.043970000001</v>
+        <v>4331.04397</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>3805.2243</v>
@@ -2678,16 +2804,16 @@
         <v>1145.49661</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>971.29788</v>
+        <v>971.2978799999999</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>9412.92369</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4317.440729999999</v>
+        <v>4317.44073</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3054.465770000001</v>
+        <v>3054.465769999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1004.49031</v>
@@ -2696,13 +2822,18 @@
         <v>4237.27437</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3194.09706</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3237.86106</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2458.228</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>16920.96573</v>
@@ -2714,34 +2845,39 @@
         <v>31293.46517</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>87538.72366000002</v>
+        <v>87538.72366</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>49081.97912</v>
+        <v>49293.09768</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>53313.63855</v>
+        <v>53427.68764</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>77216.2947</v>
+        <v>79402.76572</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>92614.34060999998</v>
+        <v>92682.88802000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>121091.60881</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>144809.26666</v>
+        <v>145190.15803</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>141422.31239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>142636.34918</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>169905.596</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>31949.17363</v>
@@ -2753,55 +2889,60 @@
         <v>121804.34499</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>38381.12869</v>
+        <v>38394.20604999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>45793.17614</v>
+        <v>45964.84226</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>101245.85023</v>
+        <v>101597.0714</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>52377.39133</v>
+        <v>53506.81079</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>131252.40212</v>
+        <v>131237.93947</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>77557.57919999999</v>
+        <v>77557.57920000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>180721.15704</v>
+        <v>181117.49576</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>124256.89111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>124605.88806</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>105637.191</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8602.230530000001</v>
+        <v>8602.230529999999</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>13373.9893</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>8415.583350000001</v>
+        <v>8415.583349999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>3966.19462</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>9236.145120000001</v>
+        <v>9236.145119999999</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>3855.0538</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4755.11518</v>
+        <v>4755.115180000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1661.2399</v>
@@ -2813,13 +2954,18 @@
         <v>6792.57741</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5536.269969999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5569.160809999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12908.263</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2398.50445</v>
@@ -2840,25 +2986,30 @@
         <v>3187.19108</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3049.57851</v>
+        <v>3067.39253</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4344.34854</v>
+        <v>4349.01589</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>6725.80025</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5768.648699999999</v>
+        <v>5768.6487</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6135.895630000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6091.323780000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4010.16</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>20948.43865</v>
@@ -2870,34 +3021,39 @@
         <v>110431.37938</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>31606.33355</v>
+        <v>31619.41091</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>35317.99748</v>
+        <v>35489.66359999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>94203.60535</v>
+        <v>94554.82652000002</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>44572.69764</v>
+        <v>45684.30308</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>125246.81368</v>
+        <v>125227.68368</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>69265.63117000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>168159.93093</v>
+        <v>168556.26965</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>112584.72551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>112945.40347</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>88718.768</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>75184.85006</v>
@@ -2909,34 +3065,39 @@
         <v>-14420.048</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>178743.05679</v>
+        <v>178742.36795</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>189292.41459</v>
+        <v>187501.64373</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>244658.31684</v>
+        <v>244220.69466</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>145841.8081</v>
+        <v>143838.42466</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>319708.96984</v>
+        <v>318806.06867</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>249698.59228</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>115747.11417</v>
+        <v>116264.25534</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>225403.56156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>225856.24915</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>326222.797</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>13187.82458</v>
@@ -2948,34 +3109,39 @@
         <v>23577.7179</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>31976.11279</v>
+        <v>31985.84007</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>38418.69064</v>
+        <v>38456.25226</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>41485.92612</v>
+        <v>41842.59528</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>42872.07237</v>
+        <v>43960.81511</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>78861.98005</v>
+        <v>78892.46215000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>69577.52251000001</v>
+        <v>69577.52251</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>75809.71407999998</v>
+        <v>76018.25664000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>85303.44324000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>86223.25876000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>89699.30100000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>61997.02548</v>
@@ -2984,34 +3150,37 @@
         <v>40479.62307</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-37997.7659</v>
+        <v>-37997.76590000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>146766.944</v>
+        <v>146756.52788</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>150873.72395</v>
+        <v>149045.39147</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>203172.39072</v>
+        <v>202378.09938</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>102969.73573</v>
+        <v>99877.60955000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>240846.98979</v>
+        <v>239913.60652</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>180121.06977</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>39937.40009</v>
+        <v>40245.99869999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>140100.11832</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>139632.99039</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>236523.496</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1418</v>
@@ -3041,31 +3213,34 @@
         <v>1934</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2789</v>
+        <v>2801</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3038</v>
+        <v>3059</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3208</v>
+        <v>3262</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3418</v>
+        <v>3433</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3654</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3704</v>
+        <v>3818</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3873</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>